--- a/ProyectoFinal/Tests_Proyecto_Argentravel_Python.xlsx
+++ b/ProyectoFinal/Tests_Proyecto_Argentravel_Python.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codeo\ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F81FF0D-3708-4D5B-9415-7F25B23DE9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA86E29B-F76B-43E4-93FD-99DDDE04C3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD56C2B-7EFC-4439-B006-08DEE2259B23}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Nombre del Proyecto</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Iniciar Sesión</t>
   </si>
   <si>
-    <t>Dirige a la página de inicio</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
@@ -97,64 +94,124 @@
     <t>Registro de Usuario</t>
   </si>
   <si>
-    <t>Todos van a una página o sección distinta</t>
-  </si>
-  <si>
     <t>Edición de Perfil de Usuario</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
     <t>Al hacer click en logout, el usuario automaticamente estará fuera de su sesión</t>
   </si>
   <si>
     <t>Login Requerido</t>
   </si>
   <si>
-    <t>Cuando el usuario no esté autenticado, este será solicitado que inicie sesión para visitar las distintas páginas. La única sección que no es requerido el inicio de sesión es la sección "Conóceme"</t>
-  </si>
-  <si>
-    <t>Hacer click a los links (a href)</t>
-  </si>
-  <si>
     <t>Proyecto Final Coder House Python (Comisión 27615)</t>
   </si>
   <si>
     <t>Leandro Dramis y Juan Pablo Apecetche</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Página Web destinada a brindar la mayor información posible al viajero que quiera visitar distintos lugares turisticos de Argentina.</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Realizar comentario en zona turistica</t>
-  </si>
-  <si>
-    <t>Poder dejar un comentario en la zona de opiniones del lugar turistico seleccionado o en la sección "viajes" de forma que pueda ser editado o eliminado por el dueño del comentario, además de ser leido por terceros.</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Edición de comentario</t>
-  </si>
-  <si>
-    <t>Poder editar un comentario propio</t>
-  </si>
-  <si>
-    <t>Eliminar comentario</t>
-  </si>
-  <si>
-    <t>Poder eliminar un comentario propio</t>
-  </si>
-  <si>
-    <t>Independientemente de la página que el usuario se encuentre, al hacer click en perfil (siempre estando logueado), el usuario será dirigo a editar su perfil en el cual podrá cambiar los datos.</t>
+    <t>115.0.5790.171</t>
+  </si>
+  <si>
+    <t>Permitir registro de usuario con éxito para el uso del sitio web posteriormente su logueo.</t>
+  </si>
+  <si>
+    <t>Usuario creado, permitimos su logueo</t>
+  </si>
+  <si>
+    <t>Permitir inicio de sesion con éxito para el uso del sitio web.</t>
+  </si>
+  <si>
+    <t>Usuario inició sesión con éxito, se encuentra en menú de inicio</t>
+  </si>
+  <si>
+    <t>Clic en botones superiores de la web (Sin loguearse)</t>
+  </si>
+  <si>
+    <t>Solicita loguearse</t>
+  </si>
+  <si>
+    <t>Solicita loguearse con éxito</t>
+  </si>
+  <si>
+    <t>Clic en botones superiores de la web (ya logueado)</t>
+  </si>
+  <si>
+    <t>Ingresar a la sección correspondiente</t>
+  </si>
+  <si>
+    <t>Se ingresa con éxito a las distintas secciones del sitio</t>
+  </si>
+  <si>
+    <t>Se le permite editar los datos de su cuenta al usuario desde la sección "Perfil", siempre y cuando este logueado.</t>
+  </si>
+  <si>
+    <t>Cerrar Sesión</t>
+  </si>
+  <si>
+    <t>El cierre de sesión es todo un éxito; no le permite ingresar a otra sección que no sea la home de la pagina a menos que vuelva a loguearse</t>
+  </si>
+  <si>
+    <t>Cuando el usuario no esté autenticado, este será solicitado que inicie sesión para visitar las distintas páginas. La única sección que no es requerido el inicio de sesión es la sección "About"</t>
+  </si>
+  <si>
+    <t>El usuario no se encuentra logueado y no pude ingresar a ninguna sección. En todas pide que inicie sesión o se registre, salvo "About".</t>
+  </si>
+  <si>
+    <t>Registro con datos ya colocados</t>
+  </si>
+  <si>
+    <t>El usuario "Apecetche" ya existe, por lo que intentamos registrarnos nuevamente con este dato para verificar que no se nos permita hacerlo. Debe tirar error de registro y pedir que lo hagamos nuevamente.</t>
+  </si>
+  <si>
+    <t>Nos dejo registrarse, nos obliga nuevamente a registrarnos</t>
+  </si>
+  <si>
+    <t>Iniciar Sesión con datos no existentes (no registrado)</t>
+  </si>
+  <si>
+    <t>Debe impedir que ingresemos a una cuenta y pedirnos que intentemos nuevamente</t>
+  </si>
+  <si>
+    <t>Efectivamente, nos solicita que ingresemos nuevamente los datos</t>
+  </si>
+  <si>
+    <t>Realizar opinión (intento 1)</t>
+  </si>
+  <si>
+    <t>Realizar opinión (intento 2)</t>
+  </si>
+  <si>
+    <t>El usuario al ingresar a la secicón "Perfil", puede editar sus datos y avatar.</t>
+  </si>
+  <si>
+    <t>No aparece la caja de comentarios para realizar la opinión</t>
+  </si>
+  <si>
+    <t>Realizar opinión (intento 3)</t>
+  </si>
+  <si>
+    <t>Permitir dejar comentario opinando de zonas turisticas en el html de cada provincia</t>
+  </si>
+  <si>
+    <t>No aparece la opinión realizada (si figura en el modulo)</t>
+  </si>
+  <si>
+    <t>La opinión aparece con éxito en el html de la provincia</t>
+  </si>
+  <si>
+    <t>Eliminar Perfil de Usuario</t>
+  </si>
+  <si>
+    <t>Permite eliminar la cuenta de usuario desde la sección "Perfil" utilizando CRUD</t>
+  </si>
+  <si>
+    <t>Usuario eliminado con éxito</t>
   </si>
 </sst>
 </file>
@@ -542,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524B7CD3-7E22-4FB7-BD6C-740AE7574A93}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,14 +620,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="6"/>
     </row>
@@ -586,7 +643,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6"/>
     </row>
@@ -595,14 +652,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -611,14 +668,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -642,185 +699,273 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="4">
         <v>45140</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" s="4">
         <v>45140</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
       <c r="B9" s="4">
-        <v>45140</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>45141</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
       <c r="B10" s="4">
-        <v>45140</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>45141</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45143</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
-        <v>45140</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="B12" s="4">
+        <v>45143</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>7</v>
-      </c>
-      <c r="B12" s="4">
-        <v>45140</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
       </c>
       <c r="B13" s="4">
         <v>45140</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4">
         <v>45140</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45150</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="4">
-        <v>45140</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="B16" s="4">
+        <v>45151</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4">
+        <v>45152</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4">
+        <v>45152</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4">
+        <v>45142</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
